--- a/data/analysis/social_media_analytics/pivot_tables/size/museum_activity_groups__var1-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/size/museum_activity_groups__var1-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -472,165 +475,219 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>111093</v>
+        <v>32564</v>
       </c>
       <c r="C4">
-        <v>9257.799999999999</v>
+        <v>2713.7</v>
       </c>
       <c r="D4">
-        <v>7639.1</v>
+        <v>3185.9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4480.2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8123.5</v>
+        <v>1835.5</v>
       </c>
       <c r="H4">
-        <v>11809.2</v>
+        <v>4087.2</v>
       </c>
       <c r="I4">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>10099.4</v>
+        <v>4070.5</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>91.7</v>
+        <v>66.7</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
-        <v>11708</v>
+        <v>57730</v>
       </c>
       <c r="P4">
-        <v>975.7</v>
+        <v>4810.8</v>
       </c>
       <c r="Q4">
-        <v>918.8</v>
+        <v>5758.1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>218.2</v>
+        <v>52.5</v>
       </c>
       <c r="T4">
-        <v>992</v>
+        <v>2818</v>
       </c>
       <c r="U4">
-        <v>1503.5</v>
+        <v>7519.2</v>
       </c>
       <c r="V4">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="W4">
         <v>12</v>
       </c>
       <c r="X4">
-        <v>1300.9</v>
+        <v>6414.4</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -639,104 +696,182 @@
         <v>75</v>
       </c>
       <c r="AA4">
+        <v>0.6</v>
+      </c>
+      <c r="AB4">
+        <v>11708</v>
+      </c>
+      <c r="AC4">
+        <v>975.7</v>
+      </c>
+      <c r="AD4">
+        <v>918.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>218.2</v>
+      </c>
+      <c r="AG4">
+        <v>992</v>
+      </c>
+      <c r="AH4">
+        <v>1503.5</v>
+      </c>
+      <c r="AI4">
+        <v>2991</v>
+      </c>
+      <c r="AJ4">
+        <v>12</v>
+      </c>
+      <c r="AK4">
+        <v>1300.9</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>75</v>
+      </c>
+      <c r="AN4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>1191387</v>
+        <v>760187</v>
       </c>
       <c r="C5">
-        <v>2392.3</v>
+        <v>1526.5</v>
       </c>
       <c r="D5">
-        <v>3987.5</v>
+        <v>2393.3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>250.2</v>
+        <v>142</v>
       </c>
       <c r="G5">
-        <v>1086.5</v>
+        <v>825</v>
       </c>
       <c r="H5">
-        <v>2647.8</v>
+        <v>1918.2</v>
       </c>
       <c r="I5">
-        <v>31042</v>
+        <v>19900</v>
       </c>
       <c r="J5">
         <v>498</v>
       </c>
       <c r="K5">
-        <v>2836.6</v>
+        <v>1881.7</v>
       </c>
       <c r="L5">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="M5">
-        <v>84.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="N5">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>267908</v>
+        <v>339665</v>
       </c>
       <c r="P5">
-        <v>538</v>
+        <v>682.1</v>
       </c>
       <c r="Q5">
-        <v>592</v>
+        <v>1780.5</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>35.8</v>
       </c>
       <c r="T5">
-        <v>425.5</v>
+        <v>205</v>
       </c>
       <c r="U5">
-        <v>844.8</v>
+        <v>597.5</v>
       </c>
       <c r="V5">
-        <v>4241</v>
+        <v>20111</v>
       </c>
       <c r="W5">
         <v>498</v>
       </c>
       <c r="X5">
+        <v>824.4</v>
+      </c>
+      <c r="Y5">
+        <v>412</v>
+      </c>
+      <c r="Z5">
+        <v>82.7</v>
+      </c>
+      <c r="AA5">
+        <v>1.2</v>
+      </c>
+      <c r="AB5">
+        <v>267908</v>
+      </c>
+      <c r="AC5">
+        <v>538</v>
+      </c>
+      <c r="AD5">
+        <v>592</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>425.5</v>
+      </c>
+      <c r="AH5">
+        <v>844.8</v>
+      </c>
+      <c r="AI5">
+        <v>4241</v>
+      </c>
+      <c r="AJ5">
+        <v>498</v>
+      </c>
+      <c r="AK5">
         <v>832</v>
       </c>
-      <c r="Y5">
+      <c r="AL5">
         <v>322</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>64.7</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>1485965</v>
+        <v>674674</v>
       </c>
       <c r="C6">
-        <v>1719.9</v>
+        <v>780.9</v>
       </c>
       <c r="D6">
-        <v>4807.6</v>
+        <v>2020.4</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -745,37 +880,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="H6">
-        <v>1547.2</v>
+        <v>965.8</v>
       </c>
       <c r="I6">
-        <v>68140</v>
+        <v>43003</v>
       </c>
       <c r="J6">
         <v>864</v>
       </c>
       <c r="K6">
-        <v>2296.7</v>
+        <v>1159.2</v>
       </c>
       <c r="L6">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="M6">
-        <v>74.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O6">
-        <v>385317</v>
+        <v>213128</v>
       </c>
       <c r="P6">
-        <v>446</v>
+        <v>246.7</v>
       </c>
       <c r="Q6">
-        <v>1552.3</v>
+        <v>1703.7</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -784,42 +919,81 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U6">
-        <v>548.5</v>
+        <v>162.5</v>
       </c>
       <c r="V6">
-        <v>36948</v>
+        <v>46992</v>
       </c>
       <c r="W6">
         <v>864</v>
       </c>
       <c r="X6">
+        <v>358.8</v>
+      </c>
+      <c r="Y6">
+        <v>594</v>
+      </c>
+      <c r="Z6">
+        <v>68.8</v>
+      </c>
+      <c r="AA6">
+        <v>0.2</v>
+      </c>
+      <c r="AB6">
+        <v>385317</v>
+      </c>
+      <c r="AC6">
+        <v>446</v>
+      </c>
+      <c r="AD6">
+        <v>1552.3</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>548.5</v>
+      </c>
+      <c r="AI6">
+        <v>36948</v>
+      </c>
+      <c r="AJ6">
+        <v>864</v>
+      </c>
+      <c r="AK6">
         <v>1044.2</v>
       </c>
-      <c r="Y6">
+      <c r="AL6">
         <v>369</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>42.7</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>2320350</v>
+        <v>813150</v>
       </c>
       <c r="C7">
-        <v>1271.4</v>
+        <v>445.6</v>
       </c>
       <c r="D7">
-        <v>4496.8</v>
+        <v>1507.5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -828,37 +1002,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>629</v>
+        <v>363</v>
       </c>
       <c r="I7">
-        <v>72982</v>
+        <v>47580</v>
       </c>
       <c r="J7">
         <v>1825</v>
       </c>
       <c r="K7">
-        <v>2191.1</v>
+        <v>865.1</v>
       </c>
       <c r="L7">
-        <v>1059</v>
+        <v>940</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>51.5</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>445848</v>
+        <v>255885</v>
       </c>
       <c r="P7">
-        <v>244.3</v>
+        <v>140.2</v>
       </c>
       <c r="Q7">
-        <v>1197.5</v>
+        <v>615.1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -867,42 +1041,81 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="V7">
-        <v>36858</v>
+        <v>11227</v>
       </c>
       <c r="W7">
         <v>1825</v>
       </c>
       <c r="X7">
+        <v>268.8</v>
+      </c>
+      <c r="Y7">
+        <v>952</v>
+      </c>
+      <c r="Z7">
+        <v>52.2</v>
+      </c>
+      <c r="AA7">
+        <v>-0.9</v>
+      </c>
+      <c r="AB7">
+        <v>445848</v>
+      </c>
+      <c r="AC7">
+        <v>244.3</v>
+      </c>
+      <c r="AD7">
+        <v>1197.5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>23</v>
+      </c>
+      <c r="AI7">
+        <v>36858</v>
+      </c>
+      <c r="AJ7">
+        <v>1825</v>
+      </c>
+      <c r="AK7">
         <v>958.8</v>
       </c>
-      <c r="Y7">
+      <c r="AL7">
         <v>465</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>25.5</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>334156</v>
+        <v>123254</v>
       </c>
       <c r="C8">
-        <v>2386.8</v>
+        <v>880.4</v>
       </c>
       <c r="D8">
-        <v>9597.6</v>
+        <v>4123.7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -911,37 +1124,37 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.5</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>1138.2</v>
+        <v>772.5</v>
       </c>
       <c r="I8">
-        <v>74441</v>
+        <v>47571</v>
       </c>
       <c r="J8">
         <v>140</v>
       </c>
       <c r="K8">
-        <v>4229.8</v>
+        <v>1688.4</v>
       </c>
       <c r="L8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M8">
-        <v>56.4</v>
+        <v>52.1</v>
       </c>
       <c r="N8">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="O8">
-        <v>75835</v>
+        <v>42654</v>
       </c>
       <c r="P8">
-        <v>541.7</v>
+        <v>304.7</v>
       </c>
       <c r="Q8">
-        <v>2079.8</v>
+        <v>1808.6</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -950,34 +1163,74 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U8">
-        <v>239.8</v>
+        <v>105</v>
       </c>
       <c r="V8">
-        <v>20246</v>
+        <v>20884</v>
       </c>
       <c r="W8">
         <v>140</v>
       </c>
       <c r="X8">
+        <v>609.3</v>
+      </c>
+      <c r="Y8">
+        <v>70</v>
+      </c>
+      <c r="Z8">
+        <v>50</v>
+      </c>
+      <c r="AA8">
+        <v>-1.1</v>
+      </c>
+      <c r="AB8">
+        <v>75835</v>
+      </c>
+      <c r="AC8">
+        <v>541.7</v>
+      </c>
+      <c r="AD8">
+        <v>2079.8</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>239.8</v>
+      </c>
+      <c r="AI8">
+        <v>20246</v>
+      </c>
+      <c r="AJ8">
+        <v>140</v>
+      </c>
+      <c r="AK8">
         <v>1849.6</v>
       </c>
-      <c r="Y8">
+      <c r="AL8">
         <v>41</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>29.3</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>-0.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/size/museum_activity_groups__var1-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/size/museum_activity_groups__var1-size.xlsx
@@ -621,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>32564</v>
+        <v>39647</v>
       </c>
       <c r="C4">
-        <v>2713.7</v>
+        <v>3303.9</v>
       </c>
       <c r="D4">
-        <v>3185.9</v>
+        <v>3684</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1835.5</v>
+        <v>2798</v>
       </c>
       <c r="H4">
-        <v>4087.2</v>
+        <v>4689</v>
       </c>
       <c r="I4">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>4070.5</v>
+        <v>4955.9</v>
       </c>
       <c r="L4">
         <v>8</v>
@@ -657,37 +657,37 @@
         <v>66.7</v>
       </c>
       <c r="N4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <v>57730</v>
+        <v>70240</v>
       </c>
       <c r="P4">
-        <v>4810.8</v>
+        <v>5853.3</v>
       </c>
       <c r="Q4">
-        <v>5758.1</v>
+        <v>6683.4</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>52.5</v>
+        <v>63.8</v>
       </c>
       <c r="T4">
-        <v>2818</v>
+        <v>3699</v>
       </c>
       <c r="U4">
-        <v>7519.2</v>
+        <v>9791.799999999999</v>
       </c>
       <c r="V4">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="W4">
         <v>12</v>
       </c>
       <c r="X4">
-        <v>6414.4</v>
+        <v>7804.4</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -696,37 +696,37 @@
         <v>75</v>
       </c>
       <c r="AA4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AB4">
-        <v>11708</v>
+        <v>13864</v>
       </c>
       <c r="AC4">
-        <v>975.7</v>
+        <v>1155.3</v>
       </c>
       <c r="AD4">
-        <v>918.8</v>
+        <v>1062.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>218.2</v>
+        <v>294</v>
       </c>
       <c r="AG4">
-        <v>992</v>
+        <v>1191</v>
       </c>
       <c r="AH4">
-        <v>1503.5</v>
+        <v>1828.5</v>
       </c>
       <c r="AI4">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AJ4">
         <v>12</v>
       </c>
       <c r="AK4">
-        <v>1300.9</v>
+        <v>1540.4</v>
       </c>
       <c r="AL4">
         <v>9</v>
@@ -735,7 +735,7 @@
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -743,121 +743,121 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>760187</v>
+        <v>898504</v>
       </c>
       <c r="C5">
-        <v>1526.5</v>
+        <v>1804.2</v>
       </c>
       <c r="D5">
-        <v>2393.3</v>
+        <v>2869.9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>142</v>
+        <v>151.2</v>
       </c>
       <c r="G5">
-        <v>825</v>
+        <v>936.5</v>
       </c>
       <c r="H5">
-        <v>1918.2</v>
+        <v>2169.2</v>
       </c>
       <c r="I5">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="J5">
         <v>498</v>
       </c>
       <c r="K5">
-        <v>1881.7</v>
+        <v>2240.7</v>
       </c>
       <c r="L5">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M5">
-        <v>81.09999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="N5">
         <v>1.4</v>
       </c>
       <c r="O5">
-        <v>339665</v>
+        <v>393310</v>
       </c>
       <c r="P5">
-        <v>682.1</v>
+        <v>789.8</v>
       </c>
       <c r="Q5">
-        <v>1780.5</v>
+        <v>2094</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>35.8</v>
+        <v>39.5</v>
       </c>
       <c r="T5">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="U5">
-        <v>597.5</v>
+        <v>696.5</v>
       </c>
       <c r="V5">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="W5">
         <v>498</v>
       </c>
       <c r="X5">
-        <v>824.4</v>
+        <v>961.6</v>
       </c>
       <c r="Y5">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z5">
-        <v>82.7</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="AA5">
         <v>1.2</v>
       </c>
       <c r="AB5">
-        <v>267908</v>
+        <v>386451</v>
       </c>
       <c r="AC5">
-        <v>538</v>
+        <v>776</v>
       </c>
       <c r="AD5">
-        <v>592</v>
+        <v>768.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AG5">
-        <v>425.5</v>
+        <v>633</v>
       </c>
       <c r="AH5">
-        <v>844.8</v>
+        <v>1110.2</v>
       </c>
       <c r="AI5">
-        <v>4241</v>
+        <v>6193</v>
       </c>
       <c r="AJ5">
         <v>498</v>
       </c>
       <c r="AK5">
-        <v>832</v>
+        <v>951.8</v>
       </c>
       <c r="AL5">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="AM5">
-        <v>64.7</v>
+        <v>81.5</v>
       </c>
       <c r="AN5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -865,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>674674</v>
+        <v>793155</v>
       </c>
       <c r="C6">
-        <v>780.9</v>
+        <v>918</v>
       </c>
       <c r="D6">
-        <v>2020.4</v>
+        <v>2530</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -880,37 +880,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H6">
-        <v>965.8</v>
+        <v>1130</v>
       </c>
       <c r="I6">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="J6">
         <v>864</v>
       </c>
       <c r="K6">
-        <v>1159.2</v>
+        <v>1389.1</v>
       </c>
       <c r="L6">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="M6">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O6">
-        <v>213128</v>
+        <v>243540</v>
       </c>
       <c r="P6">
-        <v>246.7</v>
+        <v>281.9</v>
       </c>
       <c r="Q6">
-        <v>1703.7</v>
+        <v>1851.2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -919,37 +919,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U6">
-        <v>162.5</v>
+        <v>184.2</v>
       </c>
       <c r="V6">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W6">
         <v>864</v>
       </c>
       <c r="X6">
-        <v>358.8</v>
+        <v>417</v>
       </c>
       <c r="Y6">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="Z6">
-        <v>68.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AA6">
         <v>0.2</v>
       </c>
       <c r="AB6">
-        <v>385317</v>
+        <v>464627</v>
       </c>
       <c r="AC6">
-        <v>446</v>
+        <v>537.8</v>
       </c>
       <c r="AD6">
-        <v>1552.3</v>
+        <v>708.6</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -958,28 +958,28 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>300.5</v>
       </c>
       <c r="AH6">
-        <v>548.5</v>
+        <v>846</v>
       </c>
       <c r="AI6">
-        <v>36948</v>
+        <v>8295</v>
       </c>
       <c r="AJ6">
         <v>864</v>
       </c>
       <c r="AK6">
-        <v>1044.2</v>
+        <v>750.6</v>
       </c>
       <c r="AL6">
-        <v>369</v>
+        <v>619</v>
       </c>
       <c r="AM6">
-        <v>42.7</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AN6">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -987,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>813150</v>
+        <v>948515</v>
       </c>
       <c r="C7">
-        <v>445.6</v>
+        <v>519.7</v>
       </c>
       <c r="D7">
-        <v>1507.5</v>
+        <v>1703.7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1002,37 +1002,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="I7">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="J7">
         <v>1825</v>
       </c>
       <c r="K7">
-        <v>865.1</v>
+        <v>1016.6</v>
       </c>
       <c r="L7">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="M7">
-        <v>51.5</v>
+        <v>51.1</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>255885</v>
+        <v>298239</v>
       </c>
       <c r="P7">
-        <v>140.2</v>
+        <v>163.4</v>
       </c>
       <c r="Q7">
-        <v>615.1</v>
+        <v>717</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1044,34 +1044,34 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="V7">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="W7">
         <v>1825</v>
       </c>
       <c r="X7">
-        <v>268.8</v>
+        <v>313.9</v>
       </c>
       <c r="Y7">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="Z7">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="AA7">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>445848</v>
+        <v>538279</v>
       </c>
       <c r="AC7">
-        <v>244.3</v>
+        <v>294.9</v>
       </c>
       <c r="AD7">
-        <v>1197.5</v>
+        <v>536.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1080,28 +1080,28 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AH7">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="AI7">
-        <v>36858</v>
+        <v>5226</v>
       </c>
       <c r="AJ7">
         <v>1825</v>
       </c>
       <c r="AK7">
-        <v>958.8</v>
+        <v>523.6</v>
       </c>
       <c r="AL7">
-        <v>465</v>
+        <v>1028</v>
       </c>
       <c r="AM7">
-        <v>25.5</v>
+        <v>56.3</v>
       </c>
       <c r="AN7">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1109,13 +1109,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>123254</v>
+        <v>143127</v>
       </c>
       <c r="C8">
-        <v>880.4</v>
+        <v>1022.3</v>
       </c>
       <c r="D8">
-        <v>4123.7</v>
+        <v>4583.4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1124,37 +1124,37 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>772.5</v>
+        <v>949.8</v>
       </c>
       <c r="I8">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J8">
         <v>140</v>
       </c>
       <c r="K8">
-        <v>1688.4</v>
+        <v>1987.9</v>
       </c>
       <c r="L8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8">
-        <v>52.1</v>
+        <v>51.4</v>
       </c>
       <c r="N8">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="O8">
-        <v>42654</v>
+        <v>48925</v>
       </c>
       <c r="P8">
-        <v>304.7</v>
+        <v>349.5</v>
       </c>
       <c r="Q8">
-        <v>1808.6</v>
+        <v>2125.4</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1163,37 +1163,37 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>105</v>
+        <v>112.5</v>
       </c>
       <c r="V8">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W8">
         <v>140</v>
       </c>
       <c r="X8">
-        <v>609.3</v>
+        <v>689.1</v>
       </c>
       <c r="Y8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8">
-        <v>50</v>
+        <v>50.7</v>
       </c>
       <c r="AA8">
         <v>-1.1</v>
       </c>
       <c r="AB8">
-        <v>75835</v>
+        <v>61465</v>
       </c>
       <c r="AC8">
-        <v>541.7</v>
+        <v>439</v>
       </c>
       <c r="AD8">
-        <v>2079.8</v>
+        <v>672.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1202,28 +1202,28 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AH8">
-        <v>239.8</v>
+        <v>738.2</v>
       </c>
       <c r="AI8">
-        <v>20246</v>
+        <v>3450</v>
       </c>
       <c r="AJ8">
         <v>140</v>
       </c>
       <c r="AK8">
-        <v>1849.6</v>
+        <v>768.3</v>
       </c>
       <c r="AL8">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AM8">
-        <v>29.3</v>
+        <v>57.1</v>
       </c>
       <c r="AN8">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
